--- a/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFA5C32-1E89-4C60-B7B3-196CEDEFCC7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C055F-C57E-41C0-8719-9BFD109C7088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5652" yWindow="5652" windowWidth="21348" windowHeight="15672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="3540" windowWidth="15960" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -202,6 +202,63 @@
       </rPr>
       <t>brand</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価週足</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価月足</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーション明細</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_price_weekly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_price_monthly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simulation_details</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_kind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株加工情報</t>
+    <rPh sb="0" eb="1">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -582,16 +639,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.3984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="5.4140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.9140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -710,7 +767,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <f t="shared" ref="A5" si="1">ROW()-1</f>
+        <f t="shared" ref="A5:A10" si="1">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -726,15 +783,155 @@
         <v>9</v>
       </c>
       <c r="F5" s="4">
-        <v>44315</v>
+        <v>44321</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="4">
-        <v>44315</v>
+        <v>44333</v>
       </c>
       <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44332</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44333</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44332</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>44333</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44333</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44333</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44333</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44333</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44333</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44333</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H5" xr:uid="{0A63A730-B214-4FC2-BEB7-AA78A4AA581A}"/>

--- a/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C055F-C57E-41C0-8719-9BFD109C7088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A87C0-A2A1-4F95-9559-4935769F77E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="3540" windowWidth="15960" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="6990" windowWidth="14680" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="4">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="4">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -845,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="4">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="I7" s="1"/>
     </row>

--- a/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A87C0-A2A1-4F95-9559-4935769F77E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411C3BB7-375B-484A-9A5C-CE76645C350B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="6990" windowWidth="14680" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3250" yWindow="3900" windowWidth="16850" windowHeight="14050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -205,14 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株価週足</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株価月足</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シミュレーション明細</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -225,14 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>stock_price_weekly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stock_price_monthly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>simulation_details</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,15 +233,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株加工情報</t>
+    <t>株価計算値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_price_calculation_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株計算情報</t>
     <rPh sb="0" eb="1">
       <t>カブ</t>
     </rPh>
-    <rPh sb="1" eb="3">
-      <t>カコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
+    <rPh sb="1" eb="5">
+      <t>ケイサンジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -630,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -643,7 +632,7 @@
   <cols>
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.9140625" style="5" bestFit="1" customWidth="1"/>
@@ -767,7 +756,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A10" si="1">ROW()-1</f>
+        <f t="shared" ref="A5:A9" si="1">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -789,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="4">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -799,25 +788,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="4">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -827,25 +816,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="4">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -855,13 +844,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -883,10 +872,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -904,34 +893,6 @@
         <v>44333</v>
       </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4">
-        <v>44333</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="4">
-        <v>44333</v>
-      </c>
-      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H5" xr:uid="{0A63A730-B214-4FC2-BEB7-AA78A4AA581A}"/>

--- a/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411C3BB7-375B-484A-9A5C-CE76645C350B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96811190-22B2-483B-B6D7-FC8E135CBED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3250" yWindow="3900" windowWidth="16850" windowHeight="14050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13430" yWindow="3660" windowWidth="24190" windowHeight="16790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>stock_price_calculation_value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>株計算情報</t>
     <rPh sb="0" eb="1">
       <t>カブ</t>
@@ -248,6 +244,26 @@
     <rPh sb="1" eb="5">
       <t>ケイサンジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクニカル指標</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価計算値の種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_price_calc_value_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_price_calc_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tech_indicator</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -632,7 +648,7 @@
   <cols>
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.9140625" style="5" bestFit="1" customWidth="1"/>
@@ -700,7 +716,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A4" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -756,14 +772,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A9" si="1">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -772,35 +788,35 @@
         <v>9</v>
       </c>
       <c r="F5" s="4">
-        <v>44321</v>
+        <v>44348</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="4">
-        <v>44335</v>
+        <v>44348</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -812,73 +828,73 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4">
-        <v>44333</v>
+        <v>44348</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="4">
-        <v>44333</v>
+        <v>44348</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="4">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="4">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -894,8 +910,64 @@
       </c>
       <c r="I9" s="1"/>
     </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44333</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44333</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44333</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44333</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H5" xr:uid="{0A63A730-B214-4FC2-BEB7-AA78A4AA581A}"/>
+  <autoFilter ref="A1:H6" xr:uid="{0A63A730-B214-4FC2-BEB7-AA78A4AA581A}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96811190-22B2-483B-B6D7-FC8E135CBED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155CEC6-80A8-4A60-87F8-6D9E04640514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13430" yWindow="3660" windowWidth="24190" windowHeight="16790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="8620" windowWidth="16150" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -264,6 +264,14 @@
   </si>
   <si>
     <t>tech_indicator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価時系列期間の種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sptspt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -635,13 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.4140625" defaultRowHeight="18"/>
@@ -716,7 +724,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A12" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -788,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="4">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -804,10 +812,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -816,13 +824,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="4">
-        <v>44321</v>
+        <v>44350</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="4">
-        <v>44335</v>
+        <v>44352</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -832,25 +840,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4">
-        <v>44348</v>
+        <v>44321</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="4">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -860,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -872,13 +880,13 @@
         <v>9</v>
       </c>
       <c r="F8" s="4">
-        <v>44335</v>
+        <v>44347</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="4">
-        <v>44335</v>
+        <v>44348</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -888,25 +896,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="4">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="4">
-        <v>44333</v>
+        <v>44348</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -916,13 +924,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -944,10 +952,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -966,8 +974,36 @@
       </c>
       <c r="I11" s="1"/>
     </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44333</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4">
+        <v>44333</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H6" xr:uid="{0A63A730-B214-4FC2-BEB7-AA78A4AA581A}"/>
+  <autoFilter ref="A1:H7" xr:uid="{0A63A730-B214-4FC2-BEB7-AA78A4AA581A}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155CEC6-80A8-4A60-87F8-6D9E04640514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB716E-22A9-4BB3-9DEB-2C2E0901577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="8620" windowWidth="16150" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5620" yWindow="6670" windowWidth="19190" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.4140625" defaultRowHeight="18"/>
@@ -914,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="4">
-        <v>44348</v>
+        <v>44375</v>
       </c>
       <c r="I9" s="1"/>
     </row>

--- a/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030005_テーブル一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB716E-22A9-4BB3-9DEB-2C2E0901577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2FD499-8093-452E-AED3-B7D5B6BE9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="6670" windowWidth="19190" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="22380" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -970,7 +970,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="4">
-        <v>44333</v>
+        <v>44394</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -998,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="4">
-        <v>44333</v>
+        <v>44394</v>
       </c>
       <c r="I12" s="1"/>
     </row>
